--- a/src/test/resources/TestData/RegData.xlsx
+++ b/src/test/resources/TestData/RegData.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="C2:F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,7 +453,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -461,7 +461,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
